--- a/02_image_conversion/doc/画像処理.xlsx
+++ b/02_image_conversion/doc/画像処理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\image-practice\02_image_conversion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE06A601-D3F5-4A20-8018-F02E4DB8EBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3598E713-E805-49E4-8344-8DC87B9D7FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>画像は画素の集まり</t>
     <rPh sb="0" eb="2">
@@ -173,6 +173,38 @@
     <t>青成分</t>
     <rPh sb="0" eb="3">
       <t>アオセイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒストグラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R成分</t>
+    <rPh sb="1" eb="3">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G成分</t>
+    <rPh sb="1" eb="3">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B成分</t>
+    <rPh sb="1" eb="3">
+      <t>セイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輝度</t>
+    <rPh sb="0" eb="2">
+      <t>キド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -181,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +242,34 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,11 +305,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -846,6 +910,106 @@
         <a:xfrm>
           <a:off x="0" y="11513820"/>
           <a:ext cx="2707438" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>604318</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A140881F-DA59-4B20-967A-07A3167DDBF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16897350"/>
+          <a:ext cx="2707438" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>3811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604520</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98705472-E74B-334F-8C1E-A6CC0D3FC025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2910840" y="16901161"/>
+          <a:ext cx="4003040" cy="3002280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1133,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAFF368-DCDE-4AEA-8547-C0176D1BC5BF}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7"/>
@@ -1252,6 +1416,31 @@
         <v>16</v>
       </c>
     </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02_image_conversion/doc/画像処理.xlsx
+++ b/02_image_conversion/doc/画像処理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\image-practice\02_image_conversion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3598E713-E805-49E4-8344-8DC87B9D7FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98DFAC2-CC0B-4027-A108-B5A8BB788567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>画像は画素の集まり</t>
     <rPh sb="0" eb="2">
@@ -205,6 +205,49 @@
     <t>輝度</t>
     <rPh sb="0" eb="2">
       <t>キド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統計値</t>
+    <rPh sb="0" eb="3">
+      <t>トウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央値：データを昇順に並べた時の中心の値</t>
+    <rPh sb="0" eb="3">
+      <t>チュウオウチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="14" eb="20">
+      <t>トキノチュウシンノアタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最頻値：もっとも出てくる値</t>
+    <rPh sb="0" eb="3">
+      <t>サイヒンチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントラスト：はっきりしているかの値</t>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1018,6 +1061,429 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1062021" cy="359009"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DD62BB-73CC-5B11-E4E7-460CCECE3938}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="72390" y="20292060"/>
+              <a:ext cx="1062021" cy="359009"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>平均</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>合計</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>データ数</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DD62BB-73CC-5B11-E4E7-460CCECE3938}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="72390" y="20292060"/>
+              <a:ext cx="1062021" cy="359009"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>平均</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>合計</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>データ数</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1560107" cy="357918"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="テキスト ボックス 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC20CDBA-A9B3-42E1-85D8-1730A46D7405}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="102870" y="20745450"/>
+              <a:ext cx="1560107" cy="357918"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>分散</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:subHide m:val="on"/>
+                            <m:supHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub/>
+                          <m:sup/>
+                          <m:e>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>画素値</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>平均</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:e>
+                        </m:nary>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>データ数</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="テキスト ボックス 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC20CDBA-A9B3-42E1-85D8-1730A46D7405}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="102870" y="20745450"/>
+              <a:ext cx="1560107" cy="357918"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>分散</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(∑▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>画素値</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>平均</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗^2 )/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>データ数</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1297,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAFF368-DCDE-4AEA-8547-C0176D1BC5BF}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7"/>
@@ -1441,6 +1907,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="90" spans="1:1" ht="18.3">
+      <c r="A90" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02_image_conversion/doc/画像処理.xlsx
+++ b/02_image_conversion/doc/画像処理.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\image-practice\02_image_conversion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98DFAC2-CC0B-4027-A108-B5A8BB788567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA300BE-6CF1-4CFA-BAE9-1917C5972D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1章" sheetId="2" r:id="rId1"/>
+    <sheet name="opencv" sheetId="4" r:id="rId2"/>
+    <sheet name="グラフ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>画像は画素の集まり</t>
     <rPh sb="0" eb="2">
@@ -251,12 +262,281 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ノイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISO：光の取り込み量(値が低くなるとより光を取り込む)</t>
+    <rPh sb="4" eb="5">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光を多く取り込むことで目には見えないレベルの輝度差分が出る</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>キドサブン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノイズが多いと輝度分散が高くなる</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>キドブンサン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トーンカーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変化なし</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗くなる</t>
+    <rPh sb="0" eb="1">
+      <t>クラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明るくなる</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画素値反転</t>
+    <rPh sb="0" eb="5">
+      <t>ガソチハンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>0.0039x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 6E-13</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pip install opencv-python</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストール方法</t>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:画像の読み込み</t>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cv2.imread(ファイル名)</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:画像の描画</t>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cv2.imshow("ウィンドウ名", 画像情報)</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>便利コマンド</t>
+    <rPh sb="0" eb="2">
+      <t>ベンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:キー入力</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cv2.waitKey(入力時間)</t>
+    <rPh sb="12" eb="16">
+      <t>ニュウリョクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値：入力キー番号</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cv2.cvtColor(画像情報, 変換モード)</t>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3:カラー変換</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注)pythonの場合、(行,列,カラー)の配列になっている</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +595,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -348,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -357,6 +646,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -380,20 +670,3985 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>グラフ!$A$1:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ!$B$1:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F26F-44E4-9B2F-A12A21A09A4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1739529231"/>
+        <c:axId val="1739529647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1739529231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>輝度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1739529647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1739529647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1739529231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>グラフ!$A$10:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ!$B$10:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EF2-43F7-AF06-16EC5B3606FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1739529231"/>
+        <c:axId val="1739529647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1739529231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>輝度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1739529647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1739529647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1739529231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>トーンカーブ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>変化なし</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>グラフ!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>グラフ!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D22E-4A47-A527-15E795C82DF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>暗くなる</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>グラフ!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>グラフ!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D22E-4A47-A527-15E795C82DF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>明るくなる</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>グラフ!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>グラフ!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D22E-4A47-A527-15E795C82DF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>画素値反転</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>グラフ!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>グラフ!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D22E-4A47-A527-15E795C82DF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1202811503"/>
+        <c:axId val="1202802351"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1202811503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202802351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1202802351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="255"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202811503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>グラフ!$M$2:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>グラフ!$N$2:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC46-439E-BE19-6D3890CF1EAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1958189455"/>
+        <c:axId val="1958191951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1958189455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958191951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1958191951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958189455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -423,7 +4678,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="1291590"/>
+          <a:off x="0" y="1615440"/>
           <a:ext cx="3703320" cy="2468880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -447,14 +4702,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>156209</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139674</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13944</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -482,7 +4737,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3726180" y="1280159"/>
+          <a:off x="3726180" y="1604009"/>
           <a:ext cx="3048000" cy="2456155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -506,14 +4761,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>598170</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>224790</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>182315</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -541,7 +4796,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6907530" y="1257299"/>
+          <a:off x="6907530" y="1581149"/>
           <a:ext cx="2430780" cy="2521656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -565,13 +4820,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>91355</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>130530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -601,7 +4856,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5623560"/>
+          <a:off x="0" y="5863590"/>
           <a:ext cx="2895515" cy="1925040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -615,13 +4870,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>5220</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>12840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>96575</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>139560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -651,7 +4906,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3510420" y="5632590"/>
+          <a:off x="3510420" y="5872620"/>
           <a:ext cx="2895515" cy="1925040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -665,13 +4920,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>700050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>18060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>90365</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -701,7 +4956,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3504210" y="8815350"/>
+          <a:off x="3504210" y="9040140"/>
           <a:ext cx="2895515" cy="1925040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -715,13 +4970,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>91355</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -751,7 +5006,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8797290"/>
+          <a:off x="0" y="9022080"/>
           <a:ext cx="2895515" cy="1925040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -765,13 +5020,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>627178</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>5490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -801,7 +5056,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5631180" y="13754100"/>
+          <a:off x="5631180" y="13978890"/>
           <a:ext cx="2707438" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -815,13 +5070,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9029</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>16650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>613347</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>18330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -851,7 +5106,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2813189" y="13766940"/>
+          <a:off x="2813189" y="13991730"/>
           <a:ext cx="2707438" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -865,13 +5120,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>2820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>604318</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>4500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -901,7 +5156,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13753110"/>
+          <a:off x="0" y="13977900"/>
           <a:ext cx="2707438" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -915,13 +5170,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>604318</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>13110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -951,7 +5206,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11513820"/>
+          <a:off x="0" y="11738610"/>
           <a:ext cx="2707438" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -965,13 +5220,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>604318</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>1680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1001,7 +5256,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="16897350"/>
+          <a:off x="0" y="17122140"/>
           <a:ext cx="2707438" cy="1800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1015,13 +5270,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>3811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>604520</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1051,7 +5306,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2910840" y="16901161"/>
+          <a:off x="2910840" y="17125951"/>
           <a:ext cx="4003040" cy="3002280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1065,12 +5320,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1062021" cy="359009"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="テキスト ボックス 4">
@@ -1084,7 +5339,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="72390" y="20292060"/>
+              <a:off x="72390" y="20516850"/>
               <a:ext cx="1062021" cy="359009"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1112,6 +5367,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1163,7 +5419,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="テキスト ボックス 4">
@@ -1247,12 +5503,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1560107" cy="357918"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="テキスト ボックス 15">
@@ -1266,7 +5522,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="102870" y="20745450"/>
+              <a:off x="102870" y="20970240"/>
               <a:ext cx="1560107" cy="357918"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1294,6 +5550,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1392,7 +5649,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="テキスト ボックス 15">
@@ -1484,6 +5741,305 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>689610</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="グラフ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923CF4D4-A5B7-4BED-A703-E3E233AE4F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>415290</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="グラフ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{405D9E0E-641F-4D9F-BE6E-56DA2A1A4D44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF47023-CD8A-F15D-4C43-4498E228CDCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4351020" y="20718780"/>
+          <a:ext cx="361950" cy="1211580"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>最頻値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DD9B41-C540-4554-BB28-CFBB11F21884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096250" y="20814030"/>
+          <a:ext cx="361950" cy="1169670"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>中央値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>226695</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{058E1ABF-213B-C786-4FED-6D06E8DB545C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C11C8CE-2843-2AAC-1E17-701691AA9FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1749,24 +6305,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAFF368-DCDE-4AEA-8547-C0176D1BC5BF}">
+  <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.7"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAFF368-DCDE-4AEA-8547-C0176D1BC5BF}">
-  <dimension ref="A1:I97"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7"/>
@@ -1805,126 +6348,156 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>5</v>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.3">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:6" ht="18.3">
+      <c r="A23" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.3">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:6" ht="18.3">
+      <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.3">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:6" ht="18.3">
+      <c r="A37" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.3">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:6" ht="18.3">
+      <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.3">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:9" ht="18.3">
+      <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
         <v>14</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>15</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I62" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="4" t="s">
-        <v>18</v>
+      <c r="A72" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="5" t="s">
-        <v>19</v>
+      <c r="A73" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="6" t="s">
-        <v>20</v>
+      <c r="A74" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18.3">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:1" ht="18.3">
+      <c r="A91" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18.3">
+      <c r="A101" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18.3">
+      <c r="A106" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1933,4 +6506,418 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFC494D-627F-44EE-A4C4-CFB1653E5FFD}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.7"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDB8F7D-36ED-4756-A3A5-2765B8FF1109}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.7"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <f>B1*A1</f>
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="19.8">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C7" si="0">B2*A2</f>
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(0.0064*E2^2 + 0.000000000000004*E2 - 0.0000000000004,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>255</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>200</v>
+      </c>
+      <c r="N2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <f>E3</f>
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="1">ROUND(0.0064*E3^2 + 0.000000000000004*E3 - 0.0000000000004,0)</f>
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>250</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <f>E4</f>
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <f xml:space="preserve"> ROUND(0.0065*E4^2 - 0.6452*E4 + 0.0000000000006,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="I4">
+        <v>200</v>
+      </c>
+      <c r="M4">
+        <v>-200</v>
+      </c>
+      <c r="N4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <f>E5</f>
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <f xml:space="preserve"> ROUND(0.0065*E5^2 - 0.6452*E5 + 0.0000000000006,0)</f>
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="I5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <f>E6</f>
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <f xml:space="preserve"> ROUND(0.0065*E6^2 - 0.6452*E6 + 0.0000000000006,0)</f>
+        <v>131</v>
+      </c>
+      <c r="H6">
+        <v>255</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>255</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>250</v>
+      </c>
+      <c r="F7">
+        <f>E7</f>
+        <v>250</v>
+      </c>
+      <c r="G7">
+        <f xml:space="preserve"> ROUND(0.0065*E7^2 - 0.6452*E7 + 0.0000000000006,0)</f>
+        <v>245</v>
+      </c>
+      <c r="H7">
+        <v>255</v>
+      </c>
+      <c r="I7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <f>MEDIAN(B1:B7)</f>
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>MEDIAN(C1:C6)/B8</f>
+        <v>137.5</v>
+      </c>
+      <c r="E8">
+        <v>255</v>
+      </c>
+      <c r="F8">
+        <f>E8</f>
+        <v>255</v>
+      </c>
+      <c r="G8">
+        <v>255</v>
+      </c>
+      <c r="H8">
+        <v>255</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>255</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>250</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>200</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>150</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:I8">
+    <sortCondition descending="1" ref="I2:I8"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/02_image_conversion/doc/画像処理.xlsx
+++ b/02_image_conversion/doc/画像処理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\image-practice\02_image_conversion\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA300BE-6CF1-4CFA-BAE9-1917C5972D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE264C45-668F-4444-982A-DDCA780C94EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1章" sheetId="2" r:id="rId1"/>
@@ -5018,156 +5018,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>627178</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>5490</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5100BE1-9392-524E-41D3-B1B6B87F974A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5631180" y="13978890"/>
-          <a:ext cx="2707438" cy="1800000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9029</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>16650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>613347</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>18330</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C523E90D-6B01-E50C-8549-93F7AC44AAA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2813189" y="13991730"/>
-          <a:ext cx="2707438" cy="1800000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>2820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>604318</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>4500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62FCA58-2C5B-9BF5-83E7-3269F72450C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="13977900"/>
-          <a:ext cx="2707438" cy="1800000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>52</xdr:row>
@@ -5193,7 +5043,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5220,13 +5070,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>604318</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>1680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5243,7 +5093,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5256,8 +5106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17122140"/>
-          <a:ext cx="2707438" cy="1800000"/>
+          <a:off x="0" y="17526000"/>
+          <a:ext cx="2702059" cy="1794621"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5270,13 +5120,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>3811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>604520</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5293,7 +5143,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5306,8 +5156,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2910840" y="17125951"/>
-          <a:ext cx="4003040" cy="3002280"/>
+          <a:off x="2903668" y="17529811"/>
+          <a:ext cx="3994076" cy="2993539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5320,7 +5170,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1062021" cy="359009"/>
@@ -5339,7 +5189,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="72390" y="20516850"/>
+              <a:off x="72390" y="20911969"/>
               <a:ext cx="1062021" cy="359009"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5503,7 +5353,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1560107" cy="357918"/>
@@ -5522,7 +5372,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="102870" y="20970240"/>
+              <a:off x="102870" y="21364015"/>
               <a:ext cx="1560107" cy="357918"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5745,13 +5595,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>224790</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>689610</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5773,7 +5623,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5783,13 +5633,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5811,7 +5661,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5821,13 +5671,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>217170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>506730</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5843,8 +5693,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4351020" y="20718780"/>
-          <a:ext cx="361950" cy="1211580"/>
+          <a:off x="4340262" y="21113899"/>
+          <a:ext cx="361950" cy="1207546"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5894,13 +5744,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>384810</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5916,8 +5766,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8096250" y="20814030"/>
-          <a:ext cx="361950" cy="1169670"/>
+          <a:off x="8076528" y="21208477"/>
+          <a:ext cx="360157" cy="1166308"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5961,6 +5811,156 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53789</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>102024</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>157200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55BDC11-5F15-D4EC-AF0C-3C532808A040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7046260" y="13980459"/>
+          <a:ext cx="2845223" cy="2133917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>51389</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>37940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99623</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>154799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A7A705-E409-3B45-2107-8D9C355A697E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3547624" y="13978058"/>
+          <a:ext cx="2845223" cy="2133917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>210353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>48235</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>103094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1ABF26-701F-D854-5520-EDDFB7EA581C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13926353"/>
+          <a:ext cx="2845223" cy="2133917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6306,10 +6306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAFF368-DCDE-4AEA-8547-C0176D1BC5BF}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7"/>
@@ -6409,94 +6409,94 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.3">
+    <row r="51" spans="1:11" ht="18.3">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>14</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>15</v>
       </c>
-      <c r="I62" t="s">
+      <c r="K62" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="5" t="s">
-        <v>19</v>
+      <c r="A74" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="6" t="s">
-        <v>20</v>
+      <c r="A75" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18.3">
-      <c r="A91" s="3" t="s">
+    <row r="93" spans="1:1" ht="18.3">
+      <c r="A93" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18.3">
-      <c r="A101" s="3" t="s">
+    <row r="103" spans="1:1" ht="18.3">
+      <c r="A103" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18.3">
-      <c r="A106" s="3" t="s">
+    <row r="108" spans="1:1" ht="18.3">
+      <c r="A108" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>E2</f>
+        <f t="shared" ref="F2:F8" si="1">E2</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -6685,14 +6685,14 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <f>E3</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H6" si="1">ROUND(0.0064*E3^2 + 0.000000000000004*E3 - 0.0000000000004,0)</f>
+        <f t="shared" ref="H3:H5" si="2">ROUND(0.0064*E3^2 + 0.000000000000004*E3 - 0.0000000000004,0)</f>
         <v>16</v>
       </c>
       <c r="I3">
@@ -6720,7 +6720,7 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <f>E4</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G4">
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="I4">
@@ -6756,7 +6756,7 @@
         <v>150</v>
       </c>
       <c r="F5">
-        <f>E5</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="G5">
@@ -6764,7 +6764,7 @@
         <v>49</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="I5">
@@ -6786,7 +6786,7 @@
         <v>200</v>
       </c>
       <c r="F6">
-        <f>E6</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G6">
@@ -6815,7 +6815,7 @@
         <v>250</v>
       </c>
       <c r="F7">
-        <f>E7</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="G7">
@@ -6842,7 +6842,7 @@
         <v>255</v>
       </c>
       <c r="F8">
-        <f>E8</f>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="G8">
